--- a/static/fixtures/fixtures.xlsx
+++ b/static/fixtures/fixtures.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\hack_devrel\backend\static\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DDD4CD-9F92-480A-B3DE-96BC91463CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5220D0-67D4-474E-A4C4-01EE10973365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="1" r:id="rId1"/>
     <sheet name="tools" sheetId="2" r:id="rId2"/>
+    <sheet name="spec" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="489">
   <si>
     <t>id</t>
   </si>
@@ -1166,16 +1167,351 @@
   </si>
   <si>
     <t>Управление проектом</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>is_colleague</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>Тратата</t>
+  </si>
+  <si>
+    <t>7Eleven</t>
+  </si>
+  <si>
+    <t>ruslanatarov@gmail.com</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Раздва</t>
+  </si>
+  <si>
+    <t>neverinmylife1@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Три</t>
+  </si>
+  <si>
+    <t>neverinmylife2@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Четырев</t>
+  </si>
+  <si>
+    <t>neverinmylife3@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Пять</t>
+  </si>
+  <si>
+    <t>Чисто тут</t>
+  </si>
+  <si>
+    <t>neverinmylife4@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Филипп</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Чисто там</t>
+  </si>
+  <si>
+    <t>neverinmylife5@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Росэкспо</t>
+  </si>
+  <si>
+    <t>neverinmylife6@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Альфа банк</t>
+  </si>
+  <si>
+    <t>neverinmylife7@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Рита</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Тинькофф</t>
+  </si>
+  <si>
+    <t>neverinmylife8@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Платон +</t>
+  </si>
+  <si>
+    <t>neverinmylife9@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Компания мечты</t>
+  </si>
+  <si>
+    <t>neverinmylife10@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Делаем все</t>
+  </si>
+  <si>
+    <t>neverinmylife11@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>ИТ на заказ</t>
+  </si>
+  <si>
+    <t>neverinmylife12@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>neverinmylife13@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>neverinmylife14@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>neverinmylife15@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
+  </si>
+  <si>
+    <t>neverinmylife16@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>neverinmylife17@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>neverinmylife18@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>neverinmylife19@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>neverinmylife20@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>neverinmylife21@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Яндекс</t>
+  </si>
+  <si>
+    <t>neverinmylife22@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>neverinmylife23@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Ольгова</t>
+  </si>
+  <si>
+    <t>neverinmylife24@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Оксанова</t>
+  </si>
+  <si>
+    <t>neverinmylife25@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Денисов</t>
+  </si>
+  <si>
+    <t>Три тополя</t>
+  </si>
+  <si>
+    <t>neverinmylife26@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Максимов</t>
+  </si>
+  <si>
+    <t>neverinmylife27@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Газпром</t>
+  </si>
+  <si>
+    <t>neverinmylife28@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Сергеев</t>
+  </si>
+  <si>
+    <t>neverinmylife29@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Тополь</t>
+  </si>
+  <si>
+    <t>neverinmylife30@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>neverinmylife31@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Елисей</t>
+  </si>
+  <si>
+    <t>Елисеев</t>
+  </si>
+  <si>
+    <t>neverinmylife32@unexisting.ru</t>
+  </si>
+  <si>
+    <t>Абрамов</t>
+  </si>
+  <si>
+    <t>neverinmylife33@unexisting.ru</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>job_id</t>
+  </si>
+  <si>
+    <t>grade_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1198,13 +1534,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2868,7 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C8D9E8-B6A6-49A7-AE6A-2D3FF91F14C9}">
   <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4549,4 +4888,1143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7956B881-1AB6-4109-B157-3A556E92031F}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2">
+        <v>79991234567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3">
+        <v>79991234565</v>
+      </c>
+      <c r="E3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4">
+        <v>79991111111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5">
+        <v>79991111112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>79991111113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7">
+        <v>79991111114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8">
+        <v>79991111115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9">
+        <v>79991111116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10">
+        <v>79991111117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11">
+        <v>79991111118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12">
+        <v>79991111119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D13">
+        <v>79991111120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14">
+        <v>79991111121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15">
+        <v>79991111122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16">
+        <v>79991111123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>430</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17">
+        <v>79991111124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18">
+        <v>79991111125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19">
+        <v>79991111126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" t="s">
+        <v>447</v>
+      </c>
+      <c r="D20">
+        <v>79991111127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21">
+        <v>79991111128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22">
+        <v>79991111129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" t="s">
+        <v>453</v>
+      </c>
+      <c r="D23">
+        <v>79991111130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24">
+        <v>79991111131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25">
+        <v>79991111132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>456</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" t="s">
+        <v>460</v>
+      </c>
+      <c r="D26">
+        <v>79991111133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27">
+        <v>79991111134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>456</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28">
+        <v>79991111135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" t="s">
+        <v>467</v>
+      </c>
+      <c r="D29">
+        <v>79991111136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30">
+        <v>79991111137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" t="s">
+        <v>474</v>
+      </c>
+      <c r="D31">
+        <v>79991111138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>471</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32">
+        <v>79991111139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>471</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>478</v>
+      </c>
+      <c r="C33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33">
+        <v>79991111140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" t="s">
+        <v>482</v>
+      </c>
+      <c r="D34">
+        <v>79991111141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>430</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C35" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35">
+        <v>79991111142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>430</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2E97DC75-3E41-44EC-A844-49C5EE30130F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>